--- a/frontend/device.xlsx
+++ b/frontend/device.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC3AD4-9817-4764-8A8C-53A23DE45058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="448">
   <si>
     <t>3</t>
   </si>
@@ -53,9 +54,6 @@
     <t>230198090</t>
   </si>
   <si>
-    <t>无线谷A1 1216 进门左手边第二排</t>
-  </si>
-  <si>
     <t>机箱</t>
   </si>
   <si>
@@ -74,27 +72,9 @@
     <t>东南大学</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>11700+32G机箱</t>
-  </si>
-  <si>
-    <t>胡健飞</t>
-  </si>
-  <si>
-    <t>230179402</t>
-  </si>
-  <si>
-    <t>无线谷A1 1216 进门右手边第二排</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>11700</t>
-  </si>
-  <si>
     <t>彭潜</t>
   </si>
   <si>
@@ -128,15 +108,9 @@
     <t>220215372</t>
   </si>
   <si>
-    <t>无线谷A2307进门左手边第二列第三个</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>8700主机</t>
-  </si>
-  <si>
     <t>2018-06-01</t>
   </si>
   <si>
@@ -158,9 +132,6 @@
     <t>Thinkvision 23.8寸</t>
   </si>
   <si>
-    <t>无线谷A1 1216 进门后右手边第二排</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
@@ -176,24 +147,15 @@
     <t>220210760</t>
   </si>
   <si>
-    <t>无线谷A1 1212 进门右手边第一列第三个</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
-    <t>i7-11700</t>
-  </si>
-  <si>
     <t>钟天颖</t>
   </si>
   <si>
     <t>230228197</t>
   </si>
   <si>
-    <t>无线谷A1 1214 进门右手第一排</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -212,9 +174,6 @@
     <t>2012-09-30</t>
   </si>
   <si>
-    <t>无线谷 A1 1212 进门右手边第一列第三个</t>
-  </si>
-  <si>
     <t>AOC 27寸 U2790VQ显示器</t>
   </si>
   <si>
@@ -239,9 +198,6 @@
     <t>电脑主机</t>
   </si>
   <si>
-    <t>Intel i7-8700</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -320,18 +276,12 @@
     <t>37</t>
   </si>
   <si>
-    <t>Think centre i7-8700+16G+256G hdd</t>
-  </si>
-  <si>
     <t>张梦媛</t>
   </si>
   <si>
     <t>220210904</t>
   </si>
   <si>
-    <t>无线谷 A2307 进门左手第二列第5个</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -359,18 +309,6 @@
     <t>39</t>
   </si>
   <si>
-    <t>i7 8700K，16G</t>
-  </si>
-  <si>
-    <t>高征</t>
-  </si>
-  <si>
-    <t>220190863</t>
-  </si>
-  <si>
-    <t>无线谷A1 1212 右手边第一排</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -395,15 +333,9 @@
     <t>10</t>
   </si>
   <si>
-    <t>11700+32G</t>
-  </si>
-  <si>
     <t>2021-05-30</t>
   </si>
   <si>
-    <t>无线谷A1 1221</t>
-  </si>
-  <si>
     <t>E2323swa</t>
   </si>
   <si>
@@ -416,9 +348,6 @@
     <t>2019-10-20</t>
   </si>
   <si>
-    <t>无线谷A1 1212 右手边 第一排</t>
-  </si>
-  <si>
     <t>Dell E2213 显示器 22寸</t>
   </si>
   <si>
@@ -452,9 +381,6 @@
     <t>AOC 31.5英寸</t>
   </si>
   <si>
-    <t>高昊</t>
-  </si>
-  <si>
     <t>220200856</t>
   </si>
   <si>
@@ -464,9 +390,6 @@
     <t>50</t>
   </si>
   <si>
-    <t>i7-8700K</t>
-  </si>
-  <si>
     <t>2022-06-01</t>
   </si>
   <si>
@@ -494,30 +417,12 @@
     <t>2009-07-31</t>
   </si>
   <si>
-    <t>施飞达</t>
-  </si>
-  <si>
-    <t>220190708</t>
-  </si>
-  <si>
     <t>无线谷A1-1406进门左手边第四排</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>i7-11700机箱</t>
-  </si>
-  <si>
-    <t>黎子建</t>
-  </si>
-  <si>
-    <t>220190707</t>
-  </si>
-  <si>
-    <t>无线谷A1406 进门左手边第三排</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
@@ -554,12 +459,6 @@
     <t>15</t>
   </si>
   <si>
-    <t xml:space="preserve"> i7-11700K 32G</t>
-  </si>
-  <si>
-    <t>谢辉</t>
-  </si>
-  <si>
     <t>220201012</t>
   </si>
   <si>
@@ -572,15 +471,9 @@
     <t>AOC 32寸显示器</t>
   </si>
   <si>
-    <t>220201015</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
-    <t>i7-8700 16G</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
@@ -590,15 +483,6 @@
     <t>2021-06-30</t>
   </si>
   <si>
-    <t>郝晨曦</t>
-  </si>
-  <si>
-    <t>220190706</t>
-  </si>
-  <si>
-    <t>无线谷a1 进门右手第一列第五排</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -644,9 +528,6 @@
     <t>44</t>
   </si>
   <si>
-    <t>8700K 16G</t>
-  </si>
-  <si>
     <t>陈鹏程</t>
   </si>
   <si>
@@ -668,12 +549,6 @@
     <t>220200734</t>
   </si>
   <si>
-    <t>无线谷a1 进门右手第一列第四排</t>
-  </si>
-  <si>
-    <t>i7 8700k</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
@@ -710,48 +585,21 @@
     <t>viewsonic 32寸 显示器</t>
   </si>
   <si>
-    <t>无线谷A1 1501 靠近空调位置</t>
-  </si>
-  <si>
     <t>74</t>
   </si>
   <si>
-    <t>8700k主机</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>samsung 23.5寸显示器</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
-    <t>8700K</t>
-  </si>
-  <si>
     <t>2016-08-05</t>
   </si>
   <si>
-    <t>曾坤</t>
-  </si>
-  <si>
     <t>220200868</t>
   </si>
   <si>
     <t>无线谷A1 1416  进门第一排</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>联想21.5英寸</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
@@ -767,30 +615,18 @@
     <t>82</t>
   </si>
   <si>
-    <t>12700k</t>
-  </si>
-  <si>
     <t>85</t>
   </si>
   <si>
-    <t>i7-12700K+32G</t>
-  </si>
-  <si>
     <t>96</t>
   </si>
   <si>
-    <t>PHILIPS 32英寸</t>
-  </si>
-  <si>
     <t>无线谷A2 2307 进门左手边第三排</t>
   </si>
   <si>
     <t>97</t>
   </si>
   <si>
-    <t>启航者F1 12700k</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -806,9 +642,6 @@
     <t>无线谷 A1 1214 进门右手边第一排倒数第二个</t>
   </si>
   <si>
-    <t>自组 12700k</t>
-  </si>
-  <si>
     <t>无线谷 A1 1212 进门右手第一排倒数第二个</t>
   </si>
   <si>
@@ -827,33 +660,21 @@
     <t>17</t>
   </si>
   <si>
-    <t>5950X+RTX3090 64G</t>
-  </si>
-  <si>
     <t>江毅恒</t>
   </si>
   <si>
     <t>220220757</t>
   </si>
   <si>
-    <t>无线谷A1 1405 进门靠左最里</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>PHILIPS 32寸</t>
-  </si>
-  <si>
     <t>PHILIPS 32寸 2K</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>Intel i7-12700k</t>
-  </si>
-  <si>
     <t>2022-06-20</t>
   </si>
   <si>
@@ -867,13 +688,706 @@
   </si>
   <si>
     <t>AOC 31.5寸 2K</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>飞利浦32寸</t>
+  </si>
+  <si>
+    <t>2022-06-23</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>无线谷1212进门右手二列一排</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>无线谷a1212进门右手一列三排</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>无线谷a1214左手二列一排</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>2022-08-11</t>
+  </si>
+  <si>
+    <t>无线谷A1 1212</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Philips 32寸</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>PHILIPS 32寸显示器</t>
+  </si>
+  <si>
+    <t>2022-08-10</t>
+  </si>
+  <si>
+    <t>其它单位</t>
+  </si>
+  <si>
+    <t>严顺</t>
+  </si>
+  <si>
+    <t>220211027</t>
+  </si>
+  <si>
+    <t>无线谷A2 2307 进门右手边靠窗</t>
+  </si>
+  <si>
+    <t>无线谷1212进门右手第二列第一排</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 显示器</t>
+  </si>
+  <si>
+    <t>Phlips 32寸显示器</t>
+  </si>
+  <si>
+    <t>无线谷a1 1501</t>
+  </si>
+  <si>
+    <t>飞利浦 32寸 显示器</t>
+  </si>
+  <si>
+    <t>5950X+3090 64G Remote Multi Users</t>
+  </si>
+  <si>
+    <t>邓小雪</t>
+  </si>
+  <si>
+    <t>220220914</t>
+  </si>
+  <si>
+    <t>无线谷A2-2307进门左手边倒数第二排</t>
+  </si>
+  <si>
+    <t>宋毅飞</t>
+  </si>
+  <si>
+    <t>220220792</t>
+  </si>
+  <si>
+    <t>无线谷A1 1405 进门靠右第二个</t>
+  </si>
+  <si>
+    <t>陈炳文</t>
+  </si>
+  <si>
+    <t>220220776</t>
+  </si>
+  <si>
+    <t>宋浩然</t>
+  </si>
+  <si>
+    <t>220220913</t>
+  </si>
+  <si>
+    <t>黄琨</t>
+  </si>
+  <si>
+    <t>220220935</t>
+  </si>
+  <si>
+    <t>周驰</t>
+  </si>
+  <si>
+    <t>220220930</t>
+  </si>
+  <si>
+    <t>无线谷A1 1406 进门左手最后一排</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>无线谷 A2 2307 进门右手边靠窗</t>
+  </si>
+  <si>
+    <t>待办</t>
+  </si>
+  <si>
+    <t>A1的5楼</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>i5</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>220210747</t>
+  </si>
+  <si>
+    <t>220210892</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>杨雅萱</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>孙瑨</t>
+  </si>
+  <si>
+    <t>220211055</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>无线谷A2307进门左手边第四排</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>2022-11-08</t>
+  </si>
+  <si>
+    <t>无线谷A1 1406 进门左手第二个</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>无线谷A2 2307第四排</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>2022-11-01</t>
+  </si>
+  <si>
+    <t>A1216</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>DELL 21寸 显示器</t>
+  </si>
+  <si>
+    <t>无线谷A1 1406 进门右手第四排</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>2022-11-09</t>
+  </si>
+  <si>
+    <t>无线谷A1 1406进门左手第二个</t>
+  </si>
+  <si>
+    <t>占原高昊位置所用</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>27寸</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>杨兹博</t>
+  </si>
+  <si>
+    <t>220205148</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>2014-11-09</t>
+  </si>
+  <si>
+    <t>无线谷A2 2307 进门左手边第四排</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>无线谷A1 1405进门左手最里</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2022-11-10</t>
+  </si>
+  <si>
+    <t>符张暘</t>
+  </si>
+  <si>
+    <t>213190159</t>
+  </si>
+  <si>
+    <t>无线谷A2 2307东侧靠窗</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Dell的机箱</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>联想</t>
+  </si>
+  <si>
+    <t>2307严顺工位旁</t>
+  </si>
+  <si>
+    <t>待办?</t>
+  </si>
+  <si>
+    <t>待删</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>2022-11-14</t>
+  </si>
+  <si>
+    <t>伍美凝</t>
+  </si>
+  <si>
+    <t>220220765</t>
+  </si>
+  <si>
+    <t>A2307</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 陈阳</t>
+  </si>
+  <si>
+    <t>220220907</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>2021-09-22</t>
+  </si>
+  <si>
+    <t>无线谷A2 2307进门左手第二排最后一位</t>
+  </si>
+  <si>
+    <t>A2307进门右手第一排最后一个</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>陈阳</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>张守恒</t>
+  </si>
+  <si>
+    <t>220215464</t>
+  </si>
+  <si>
+    <t>A1的4楼</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>2022-09-01</t>
+  </si>
+  <si>
+    <t>无线谷A1405</t>
+  </si>
+  <si>
+    <t>无线谷 A1 1212</t>
+  </si>
+  <si>
+    <t>A1 1212</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>江锐</t>
+  </si>
+  <si>
+    <t>230238227</t>
+  </si>
+  <si>
+    <t>A1 1216 里面右手</t>
+  </si>
+  <si>
+    <t>1216待分配</t>
+  </si>
+  <si>
+    <t>12700K + 32G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星27寸2K显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11700K + 32G</t>
+  </si>
+  <si>
+    <t>11700K + 32G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8700K + 16G</t>
+  </si>
+  <si>
+    <t>AOC 31.5寸2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOC 21寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>7950X + 128G</t>
+  </si>
+  <si>
+    <t>2023-06-21</t>
+  </si>
+  <si>
+    <t>无线谷A1 1405</t>
+  </si>
+  <si>
+    <t>工作站</t>
+  </si>
+  <si>
+    <t>A2 2307原谢辉电脑，暂存孙瑨处</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>AOC 32寸</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>13900K</t>
+  </si>
+  <si>
+    <t>13700K + 32G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有/Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t>无线谷A2 2307 进门左手第二排倒数第二位</t>
+  </si>
+  <si>
+    <t>张波</t>
+  </si>
+  <si>
+    <t>220221064</t>
+  </si>
+  <si>
+    <t>无线谷A1501靠近空调</t>
+  </si>
+  <si>
+    <t>袁纪伟</t>
+  </si>
+  <si>
+    <t>220221049</t>
+  </si>
+  <si>
+    <t>A1 1406</t>
+  </si>
+  <si>
+    <t>无线谷A1 1406</t>
+  </si>
+  <si>
+    <t>无线谷 A2 2307</t>
+  </si>
+  <si>
+    <t>李彰</t>
+  </si>
+  <si>
+    <t>220221050</t>
+  </si>
+  <si>
+    <t>无线谷A2307进门右手第三排右边</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>2023-07-06</t>
+  </si>
+  <si>
+    <t>无线谷A2 2307进来右手第三排</t>
+  </si>
+  <si>
+    <t>无线谷a1 五楼靠空调</t>
+  </si>
+  <si>
+    <t>A1 5楼</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>5950X</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>6700K</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>维修中/UnderFix</t>
+  </si>
+  <si>
+    <t>王老师</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>HKC 31.5寸 4K</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>无线谷A2 2307进门左手边第四排</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>无线谷A1-1405进门右手第一排第二个</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>无线谷A1-1405 进门右手第一排第一个</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>无线谷1212进门左手第一排最后一列</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>2023-07-07</t>
+  </si>
+  <si>
+    <t>王海鹏</t>
+  </si>
+  <si>
+    <t>230238239</t>
+  </si>
+  <si>
+    <t>进门右手边倒数第二位（靠窗一侧）</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>220230802</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>紫金山实验室B1楼10层A区</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>罗潇</t>
+  </si>
+  <si>
+    <t>220230827</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>侯锐丁</t>
+  </si>
+  <si>
+    <t>230238273</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>杜泓熠</t>
+  </si>
+  <si>
+    <t>230238272</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>1214进门右手第一列倒数第二个位置</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKC 32寸 T3252U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOC 32寸 Q32V3S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOC 32寸 Q32V3S</t>
+  </si>
+  <si>
+    <t>HKC 32寸 T3252U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,14 +1423,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1191,23 +1706,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="N171" sqref="N171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1222,24 +1740,27 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="K1">
+        <v>1312412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1248,22 +1769,25 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="K2">
+        <v>41324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1283,92 +1807,100 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>278</v>
+      </c>
+      <c r="K3">
+        <v>234123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="F4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" t="s">
+        <v>283</v>
+      </c>
+      <c r="J4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K4">
+        <v>423412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5">
+        <v>423413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6"/>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>359</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1377,30 +1909,33 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K7">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -1415,154 +1950,167 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="K9">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>359</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13" spans="1:10">
+        <v>397</v>
+      </c>
+      <c r="K10">
+        <v>2341234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>389</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>390</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>391</v>
+      </c>
+      <c r="K13">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
       <c r="G14" t="s">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>332</v>
+      </c>
+      <c r="K14">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>359</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1574,27 +2122,30 @@
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>368</v>
+      </c>
+      <c r="K15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1606,27 +2157,30 @@
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>145</v>
+      </c>
+      <c r="K16">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -1635,62 +2189,33 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>268</v>
+        <v>355</v>
       </c>
       <c r="I17" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="J17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="K17">
+        <v>2341234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1705,62 +2230,68 @@
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>313</v>
+      </c>
+      <c r="K19">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>278</v>
+      </c>
+      <c r="K20">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
@@ -1769,16 +2300,19 @@
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I21" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>263</v>
+      </c>
+      <c r="K21">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1786,13 +2320,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
@@ -1801,95 +2335,103 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="K22">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>249</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>273</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>278</v>
+      </c>
+      <c r="K23">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="J24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25"/>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>26</v>
+        <v>145</v>
+      </c>
+      <c r="K24">
+        <v>2341234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>232</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
@@ -1898,24 +2440,27 @@
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>53</v>
+      </c>
+      <c r="K26">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>358</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -1924,30 +2469,33 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>271</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>272</v>
+      </c>
+      <c r="K27">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -1962,414 +2510,453 @@
         <v>6</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>45</v>
+      </c>
+      <c r="K28">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>63</v>
+      </c>
+      <c r="K29">
+        <v>2341234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>63</v>
+      </c>
+      <c r="K30">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
       <c r="G31" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>278</v>
+      </c>
+      <c r="K31">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>70</v>
+      </c>
+      <c r="K32">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>79</v>
+      </c>
+      <c r="K33">
+        <v>2341234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
       <c r="G34" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="J34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>278</v>
+      </c>
+      <c r="K34">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
         <v>47</v>
       </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="D36" t="s">
         <v>48</v>
       </c>
-      <c r="I35" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
       <c r="G36" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>277</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="J36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>278</v>
+      </c>
+      <c r="K36">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
       <c r="G37" t="s">
         <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="I37" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="J37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>278</v>
+      </c>
+      <c r="K37">
+        <v>2341234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I38" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="K38">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>360</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
       <c r="G39" t="s">
         <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="I39" t="s">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="J39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>332</v>
+      </c>
+      <c r="K39">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H40" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="I40" t="s">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="J40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>278</v>
+      </c>
+      <c r="K40">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
@@ -2378,94 +2965,103 @@
         <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="I41" t="s">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="J41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>332</v>
+      </c>
+      <c r="K41">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="I42" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J42" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K42">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" t="s">
-        <v>199</v>
-      </c>
-      <c r="E43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H43" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="J43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>278</v>
+      </c>
+      <c r="K43">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>360</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
@@ -2474,20 +3070,21 @@
         <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="I44" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="J44" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47" spans="1:10">
+        <v>169</v>
+      </c>
+      <c r="K44">
+        <v>2341234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -2496,10 +3093,10 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2508,24 +3105,27 @@
         <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I47" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="J47" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>126</v>
+      </c>
+      <c r="K47">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>359</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -2534,24 +3134,27 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="G48" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="I48" t="s">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c r="J48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>349</v>
+      </c>
+      <c r="K48">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -2566,196 +3169,179 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" t="s">
         <v>6</v>
       </c>
       <c r="H49" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="I49" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="J49" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>145</v>
-      </c>
       <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>360</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
         <v>10</v>
       </c>
-      <c r="C50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
       <c r="G50" t="s">
         <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>270</v>
       </c>
       <c r="I50" t="s">
-        <v>143</v>
+        <v>271</v>
       </c>
       <c r="J50" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>348</v>
+      </c>
+      <c r="K50">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
         <v>6</v>
       </c>
       <c r="H51" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I51" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="J51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>113</v>
+      </c>
+      <c r="K51">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
         <v>10</v>
       </c>
-      <c r="C52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H52" t="s">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="I52" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="J52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>239</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>240</v>
-      </c>
-      <c r="D53" t="s">
-        <v>235</v>
-      </c>
-      <c r="E53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" t="s">
-        <v>236</v>
-      </c>
-      <c r="I53" t="s">
-        <v>237</v>
-      </c>
-      <c r="J53" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>298</v>
+      </c>
+      <c r="K52">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H54" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="I54" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="J54" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>278</v>
+      </c>
+      <c r="K54">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -2764,56 +3350,62 @@
         <v>6</v>
       </c>
       <c r="H55" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="I55" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="J55" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K55">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>358</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
         <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c r="I56" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="J56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>284</v>
+      </c>
+      <c r="K56">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>358</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -2822,62 +3414,68 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" t="s">
         <v>6</v>
       </c>
       <c r="H57" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="I57" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>260</v>
+      </c>
+      <c r="K57">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" t="s">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="I58" t="s">
-        <v>157</v>
+        <v>271</v>
       </c>
       <c r="J58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>130</v>
+      </c>
+      <c r="K58">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -2892,24 +3490,27 @@
         <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="I59" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="J59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>260</v>
+      </c>
+      <c r="K59">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>359</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -2918,24 +3519,27 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="G60" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s">
-        <v>161</v>
+        <v>381</v>
       </c>
       <c r="I60" t="s">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="J60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>383</v>
+      </c>
+      <c r="K60">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -2956,62 +3560,33 @@
         <v>6</v>
       </c>
       <c r="H61" t="s">
-        <v>161</v>
+        <v>381</v>
       </c>
       <c r="I61" t="s">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="J61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>231</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" t="s">
-        <v>161</v>
-      </c>
-      <c r="I62" t="s">
-        <v>162</v>
-      </c>
-      <c r="J62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>383</v>
+      </c>
+      <c r="K61">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -3020,30 +3595,33 @@
         <v>6</v>
       </c>
       <c r="H63" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="J63" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>225</v>
+      </c>
+      <c r="K63">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F64" t="s">
         <v>5</v>
@@ -3052,30 +3630,33 @@
         <v>6</v>
       </c>
       <c r="H64" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="I64" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="J64" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K64">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>360</v>
       </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="F65" t="s">
         <v>5</v>
@@ -3084,30 +3665,33 @@
         <v>6</v>
       </c>
       <c r="H65" t="s">
-        <v>212</v>
+        <v>381</v>
       </c>
       <c r="I65" t="s">
-        <v>213</v>
+        <v>382</v>
       </c>
       <c r="J65" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>396</v>
+      </c>
+      <c r="K65">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3116,30 +3700,33 @@
         <v>6</v>
       </c>
       <c r="H66" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="I66" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="J66" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K66">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s">
         <v>5</v>
@@ -3148,30 +3735,33 @@
         <v>6</v>
       </c>
       <c r="H67" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="I67" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="J67" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K67">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
         <v>5</v>
@@ -3180,202 +3770,388 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="I68" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="J68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71" spans="1:10">
-      <c r="A71" t="s">
-        <v>241</v>
-      </c>
-      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="K68">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>299</v>
+      </c>
+      <c r="B69" t="s">
         <v>1</v>
       </c>
-      <c r="C71" t="s">
-        <v>240</v>
-      </c>
-      <c r="D71" t="s">
-        <v>235</v>
-      </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" t="s">
-        <v>236</v>
-      </c>
-      <c r="I71" t="s">
-        <v>237</v>
-      </c>
-      <c r="J71" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="C69" t="s">
+        <v>300</v>
+      </c>
+      <c r="D69" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" t="s">
+        <v>375</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" t="s">
+        <v>384</v>
+      </c>
+      <c r="I69" t="s">
+        <v>385</v>
+      </c>
+      <c r="J69" t="s">
+        <v>301</v>
+      </c>
+      <c r="K69">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>360</v>
+      </c>
+      <c r="D72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
         <v>10</v>
       </c>
-      <c r="C72" t="s">
-        <v>234</v>
-      </c>
-      <c r="D72" t="s">
-        <v>235</v>
-      </c>
-      <c r="E72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
       <c r="G72" t="s">
         <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="I72" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="J72" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>190</v>
+      </c>
+      <c r="K72">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H73" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="I73" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="J73" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>183</v>
+      </c>
+      <c r="K73">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G74" t="s">
         <v>6</v>
       </c>
       <c r="H74" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
       <c r="I74" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="J74" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K74">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" t="s">
+        <v>375</v>
+      </c>
+      <c r="F75" t="s">
+        <v>376</v>
+      </c>
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" t="s">
+        <v>384</v>
+      </c>
+      <c r="I75" t="s">
+        <v>385</v>
+      </c>
+      <c r="J75" t="s">
+        <v>387</v>
+      </c>
+      <c r="K75">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>356</v>
+      </c>
+      <c r="D77" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>376</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" t="s">
+        <v>384</v>
+      </c>
+      <c r="I77" t="s">
+        <v>385</v>
+      </c>
+      <c r="J77" t="s">
+        <v>386</v>
+      </c>
+      <c r="K77">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79" t="s">
+        <v>84</v>
+      </c>
+      <c r="J79" t="s">
+        <v>248</v>
+      </c>
+      <c r="K79">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>226</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>356</v>
+      </c>
+      <c r="D80" t="s">
+        <v>223</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" t="s">
         <v>227</v>
       </c>
-      <c r="D75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="K80">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" t="s">
         <v>223</v>
       </c>
-      <c r="I75" t="s">
-        <v>224</v>
-      </c>
-      <c r="J75" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78" spans="1:10">
-      <c r="J78" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82" spans="1:10">
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" t="s">
+        <v>154</v>
+      </c>
+      <c r="K81">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
       <c r="D82" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
         <v>5</v>
@@ -3390,25 +4166,62 @@
         <v>8</v>
       </c>
       <c r="J82" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83"/>
-    <row r="84" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="K82">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" t="s">
+        <v>254</v>
+      </c>
+      <c r="D83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" t="s">
+        <v>181</v>
+      </c>
+      <c r="I83" t="s">
+        <v>182</v>
+      </c>
+      <c r="J83" t="s">
+        <v>255</v>
+      </c>
+      <c r="K83">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
         <v>5</v>
@@ -3423,24 +4236,27 @@
         <v>8</v>
       </c>
       <c r="J84" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="K84">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="D85" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
@@ -3449,32 +4265,103 @@
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="I85" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="J85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88">
+        <v>99</v>
+      </c>
+      <c r="K85">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" t="s">
+        <v>237</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" t="s">
+        <v>41</v>
+      </c>
+      <c r="I86" t="s">
+        <v>42</v>
+      </c>
+      <c r="J86" t="s">
+        <v>238</v>
+      </c>
+      <c r="K86">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>356</v>
+      </c>
+      <c r="D87" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" t="s">
+        <v>42</v>
+      </c>
+      <c r="J87" t="s">
+        <v>238</v>
+      </c>
+      <c r="K87">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
         <v>5</v>
@@ -3483,31 +4370,68 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I88" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J88" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="89"/>
-    <row r="90" spans="1:10">
+        <v>217</v>
+      </c>
+      <c r="K88">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>356</v>
+      </c>
+      <c r="D89" t="s">
+        <v>223</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" t="s">
+        <v>83</v>
+      </c>
+      <c r="I89" t="s">
+        <v>84</v>
+      </c>
+      <c r="J89" t="s">
+        <v>225</v>
+      </c>
+      <c r="K89">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="D90" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
         <v>5</v>
@@ -3516,30 +4440,33 @@
         <v>6</v>
       </c>
       <c r="H90" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="I90" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J90" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>209</v>
+      </c>
+      <c r="K90">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="D91" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
         <v>5</v>
@@ -3548,128 +4475,208 @@
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I91" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J91" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94" spans="1:10">
+        <v>217</v>
+      </c>
+      <c r="K91">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>256</v>
+      </c>
+      <c r="D92" t="s">
+        <v>223</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s">
+        <v>230</v>
+      </c>
+      <c r="K92">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>356</v>
+      </c>
+      <c r="D93" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" t="s">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s">
+        <v>78</v>
+      </c>
+      <c r="J93" t="s">
+        <v>230</v>
+      </c>
+      <c r="K93">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>356</v>
+      </c>
+      <c r="D94" t="s">
+        <v>201</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
         <v>10</v>
       </c>
-      <c r="C94" t="s">
-        <v>260</v>
-      </c>
-      <c r="D94" t="s">
-        <v>256</v>
-      </c>
-      <c r="E94" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" t="s">
-        <v>5</v>
-      </c>
       <c r="G94" t="s">
         <v>6</v>
       </c>
       <c r="H94" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I94" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J94" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>205</v>
+      </c>
+      <c r="K94">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G95" t="s">
         <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I95" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J95" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>204</v>
+      </c>
+      <c r="K95">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>251</v>
+        <v>392</v>
       </c>
       <c r="D96" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="F96" t="s">
         <v>5</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H96" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="I96" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J96" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>198</v>
+      </c>
+      <c r="K96">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="D97" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="E97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
         <v>5</v>
@@ -3678,18 +4685,2466 @@
         <v>6</v>
       </c>
       <c r="H97" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I97" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J97" t="s">
-        <v>252</v>
+        <v>198</v>
+      </c>
+      <c r="K97">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>356</v>
+      </c>
+      <c r="D98" t="s">
+        <v>234</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>357</v>
+      </c>
+      <c r="D99" t="s">
+        <v>303</v>
+      </c>
+      <c r="E99" t="s">
+        <v>244</v>
+      </c>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" t="s">
+        <v>266</v>
+      </c>
+      <c r="I99" t="s">
+        <v>267</v>
+      </c>
+      <c r="J99" t="s">
+        <v>304</v>
+      </c>
+      <c r="K99">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>321</v>
+      </c>
+      <c r="B100" t="s">
+        <v>322</v>
+      </c>
+      <c r="C100" t="s">
+        <v>322</v>
+      </c>
+      <c r="D100" t="s">
+        <v>341</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" t="s">
+        <v>342</v>
+      </c>
+      <c r="I100" t="s">
+        <v>343</v>
+      </c>
+      <c r="J100" t="s">
+        <v>344</v>
+      </c>
+      <c r="K100">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>323</v>
+      </c>
+      <c r="B101" t="s">
+        <v>324</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>341</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" t="s">
+        <v>342</v>
+      </c>
+      <c r="I101" t="s">
+        <v>343</v>
+      </c>
+      <c r="J101" t="s">
+        <v>344</v>
+      </c>
+      <c r="K101">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>345</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>356</v>
+      </c>
+      <c r="D102" t="s">
+        <v>346</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" t="s">
+        <v>261</v>
+      </c>
+      <c r="I102" t="s">
+        <v>262</v>
+      </c>
+      <c r="J102" t="s">
+        <v>347</v>
+      </c>
+      <c r="K102">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>291</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>356</v>
+      </c>
+      <c r="D105" t="s">
+        <v>292</v>
+      </c>
+      <c r="E105" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" t="s">
+        <v>266</v>
+      </c>
+      <c r="I105" t="s">
+        <v>267</v>
+      </c>
+      <c r="J105" t="s">
+        <v>293</v>
+      </c>
+      <c r="K105">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>306</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>307</v>
+      </c>
+      <c r="D106" t="s">
+        <v>303</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" t="s">
+        <v>305</v>
+      </c>
+      <c r="I106" t="s">
+        <v>118</v>
+      </c>
+      <c r="J106" t="s">
+        <v>119</v>
+      </c>
+      <c r="K106">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>294</v>
+      </c>
+      <c r="B107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" t="s">
+        <v>356</v>
+      </c>
+      <c r="D107" t="s">
+        <v>292</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" t="s">
+        <v>268</v>
+      </c>
+      <c r="I107" t="s">
+        <v>269</v>
+      </c>
+      <c r="J107" t="s">
+        <v>295</v>
+      </c>
+      <c r="K107">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>360</v>
+      </c>
+      <c r="D109" t="s">
+        <v>275</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" t="s">
+        <v>287</v>
+      </c>
+      <c r="I109" t="s">
+        <v>288</v>
+      </c>
+      <c r="J109" t="s">
+        <v>284</v>
+      </c>
+      <c r="K109">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>279</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" t="s">
+        <v>277</v>
+      </c>
+      <c r="I110" t="s">
+        <v>273</v>
+      </c>
+      <c r="J110" t="s">
+        <v>278</v>
+      </c>
+      <c r="K110">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>308</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>357</v>
+      </c>
+      <c r="D114" t="s">
+        <v>303</v>
+      </c>
+      <c r="E114" t="s">
+        <v>375</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" t="s">
+        <v>258</v>
+      </c>
+      <c r="I114" t="s">
+        <v>259</v>
+      </c>
+      <c r="J114" t="s">
+        <v>380</v>
+      </c>
+      <c r="K114">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>241</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" t="s">
+        <v>243</v>
+      </c>
+      <c r="E115" t="s">
+        <v>244</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" t="s">
+        <v>245</v>
+      </c>
+      <c r="I115" t="s">
+        <v>246</v>
+      </c>
+      <c r="J115" t="s">
+        <v>247</v>
+      </c>
+      <c r="K115">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>289</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>357</v>
+      </c>
+      <c r="D116" t="s">
+        <v>275</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" t="s">
+        <v>290</v>
+      </c>
+      <c r="K116">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>274</v>
+      </c>
+      <c r="B117" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" t="s">
+        <v>356</v>
+      </c>
+      <c r="D117" t="s">
+        <v>275</v>
+      </c>
+      <c r="E117" t="s">
+        <v>244</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" t="s">
+        <v>245</v>
+      </c>
+      <c r="I117" t="s">
+        <v>246</v>
+      </c>
+      <c r="J117" t="s">
+        <v>276</v>
+      </c>
+      <c r="K117">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>281</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>280</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" t="s">
+        <v>277</v>
+      </c>
+      <c r="I118" t="s">
+        <v>273</v>
+      </c>
+      <c r="J118" t="s">
+        <v>278</v>
+      </c>
+      <c r="K118">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>296</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>357</v>
+      </c>
+      <c r="D120" t="s">
+        <v>297</v>
+      </c>
+      <c r="E120" t="s">
+        <v>375</v>
+      </c>
+      <c r="F120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" t="s">
+        <v>405</v>
+      </c>
+      <c r="I120" t="s">
+        <v>406</v>
+      </c>
+      <c r="J120" t="s">
+        <v>407</v>
+      </c>
+      <c r="K120">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>311</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>362</v>
+      </c>
+      <c r="D121" t="s">
+        <v>312</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" t="s">
+        <v>277</v>
+      </c>
+      <c r="I121" t="s">
+        <v>273</v>
+      </c>
+      <c r="J121" t="s">
+        <v>278</v>
+      </c>
+      <c r="K121">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>314</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>357</v>
+      </c>
+      <c r="D122" t="s">
+        <v>303</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" t="s">
+        <v>211</v>
+      </c>
+      <c r="I122" t="s">
+        <v>212</v>
+      </c>
+      <c r="J122" t="s">
+        <v>315</v>
+      </c>
+      <c r="K122">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>356</v>
+      </c>
+      <c r="D123" t="s">
+        <v>317</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" t="s">
+        <v>318</v>
+      </c>
+      <c r="I123" t="s">
+        <v>319</v>
+      </c>
+      <c r="J123" t="s">
+        <v>320</v>
+      </c>
+      <c r="K123">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>369</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>370</v>
+      </c>
+      <c r="D124" t="s">
+        <v>371</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" t="s">
+        <v>352</v>
+      </c>
+      <c r="I124" t="s">
+        <v>353</v>
+      </c>
+      <c r="J124" t="s">
+        <v>91</v>
+      </c>
+      <c r="K124">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>363</v>
+      </c>
+      <c r="B125" t="s">
+        <v>367</v>
+      </c>
+      <c r="C125" t="s">
+        <v>364</v>
+      </c>
+      <c r="D125" t="s">
+        <v>365</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" t="s">
+        <v>211</v>
+      </c>
+      <c r="I125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J125" t="s">
+        <v>366</v>
+      </c>
+      <c r="K125">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>372</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>373</v>
+      </c>
+      <c r="D126" t="s">
+        <v>371</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" t="s">
+        <v>352</v>
+      </c>
+      <c r="I126" t="s">
+        <v>353</v>
+      </c>
+      <c r="J126" t="s">
+        <v>91</v>
+      </c>
+      <c r="K126">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>350</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>361</v>
+      </c>
+      <c r="D127" t="s">
+        <v>351</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" t="s">
+        <v>352</v>
+      </c>
+      <c r="I127" t="s">
+        <v>353</v>
+      </c>
+      <c r="J127" t="s">
+        <v>354</v>
+      </c>
+      <c r="K127">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>398</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>399</v>
+      </c>
+      <c r="D128" t="s">
+        <v>400</v>
+      </c>
+      <c r="E128" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>376</v>
+      </c>
+      <c r="G128" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" t="s">
+        <v>277</v>
+      </c>
+      <c r="I128" t="s">
+        <v>273</v>
+      </c>
+      <c r="J128" t="s">
+        <v>278</v>
+      </c>
+      <c r="K128">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>401</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>402</v>
+      </c>
+      <c r="D129" t="s">
+        <v>403</v>
+      </c>
+      <c r="E129" t="s">
+        <v>375</v>
+      </c>
+      <c r="F129" t="s">
+        <v>376</v>
+      </c>
+      <c r="G129" t="s">
+        <v>404</v>
+      </c>
+      <c r="H129" t="s">
+        <v>277</v>
+      </c>
+      <c r="I129" t="s">
+        <v>273</v>
+      </c>
+      <c r="J129" t="s">
+        <v>278</v>
+      </c>
+      <c r="K129">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>408</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>409</v>
+      </c>
+      <c r="D130" t="s">
+        <v>410</v>
+      </c>
+      <c r="E130" t="s">
+        <v>375</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" t="s">
+        <v>7</v>
+      </c>
+      <c r="I130" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130" t="s">
+        <v>298</v>
+      </c>
+      <c r="K130">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>328</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>360</v>
+      </c>
+      <c r="D135" t="s">
+        <v>329</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" t="s">
+        <v>6</v>
+      </c>
+      <c r="H135" t="s">
+        <v>333</v>
+      </c>
+      <c r="I135" t="s">
+        <v>334</v>
+      </c>
+      <c r="J135" t="s">
+        <v>338</v>
+      </c>
+      <c r="K135">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>335</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>361</v>
+      </c>
+      <c r="D136" t="s">
+        <v>336</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" t="s">
+        <v>309</v>
+      </c>
+      <c r="I136" t="s">
+        <v>310</v>
+      </c>
+      <c r="J136" t="s">
+        <v>337</v>
+      </c>
+      <c r="K136">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>339</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>358</v>
+      </c>
+      <c r="D137" t="s">
+        <v>336</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" t="s">
+        <v>309</v>
+      </c>
+      <c r="I137" t="s">
+        <v>310</v>
+      </c>
+      <c r="J137" t="s">
+        <v>337</v>
+      </c>
+      <c r="K137">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>374</v>
+      </c>
+      <c r="D148" s="1">
+        <v>45114</v>
+      </c>
+      <c r="E148" t="s">
+        <v>375</v>
+      </c>
+      <c r="F148" t="s">
+        <v>376</v>
+      </c>
+      <c r="G148" t="s">
+        <v>29</v>
+      </c>
+      <c r="H148" t="s">
+        <v>377</v>
+      </c>
+      <c r="I148" t="s">
+        <v>377</v>
+      </c>
+      <c r="J148" t="s">
+        <v>377</v>
+      </c>
+      <c r="K148">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s">
+        <v>374</v>
+      </c>
+      <c r="D149" s="1">
+        <v>45114</v>
+      </c>
+      <c r="E149" t="s">
+        <v>375</v>
+      </c>
+      <c r="F149" t="s">
+        <v>376</v>
+      </c>
+      <c r="G149" t="s">
+        <v>29</v>
+      </c>
+      <c r="H149" t="s">
+        <v>377</v>
+      </c>
+      <c r="I149" t="s">
+        <v>377</v>
+      </c>
+      <c r="J149" t="s">
+        <v>377</v>
+      </c>
+      <c r="K149">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>378</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>374</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E150" t="s">
+        <v>375</v>
+      </c>
+      <c r="F150" t="s">
+        <v>376</v>
+      </c>
+      <c r="G150" t="s">
+        <v>6</v>
+      </c>
+      <c r="H150" t="s">
+        <v>258</v>
+      </c>
+      <c r="I150" t="s">
+        <v>259</v>
+      </c>
+      <c r="J150" t="s">
+        <v>332</v>
+      </c>
+      <c r="K150">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>374</v>
+      </c>
+      <c r="D151" s="1">
+        <v>45114</v>
+      </c>
+      <c r="E151" t="s">
+        <v>375</v>
+      </c>
+      <c r="F151" t="s">
+        <v>376</v>
+      </c>
+      <c r="G151" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" t="s">
+        <v>377</v>
+      </c>
+      <c r="I151" t="s">
+        <v>377</v>
+      </c>
+      <c r="J151" t="s">
+        <v>377</v>
+      </c>
+      <c r="K151">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>374</v>
+      </c>
+      <c r="D152" s="1">
+        <v>45114</v>
+      </c>
+      <c r="E152" t="s">
+        <v>375</v>
+      </c>
+      <c r="F152" t="s">
+        <v>376</v>
+      </c>
+      <c r="G152" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152" t="s">
+        <v>377</v>
+      </c>
+      <c r="I152" t="s">
+        <v>377</v>
+      </c>
+      <c r="J152" t="s">
+        <v>377</v>
+      </c>
+      <c r="K152">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>437</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>374</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E153" t="s">
+        <v>375</v>
+      </c>
+      <c r="F153" t="s">
+        <v>376</v>
+      </c>
+      <c r="G153" t="s">
+        <v>6</v>
+      </c>
+      <c r="H153" t="s">
+        <v>438</v>
+      </c>
+      <c r="I153" t="s">
+        <v>439</v>
+      </c>
+      <c r="J153" t="s">
+        <v>377</v>
+      </c>
+      <c r="K153">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>434</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>374</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E154" t="s">
+        <v>375</v>
+      </c>
+      <c r="F154" t="s">
+        <v>376</v>
+      </c>
+      <c r="G154" t="s">
+        <v>6</v>
+      </c>
+      <c r="H154" t="s">
+        <v>435</v>
+      </c>
+      <c r="I154" t="s">
+        <v>436</v>
+      </c>
+      <c r="J154" t="s">
+        <v>377</v>
+      </c>
+      <c r="K154">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>431</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>374</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E155" t="s">
+        <v>375</v>
+      </c>
+      <c r="F155" t="s">
+        <v>376</v>
+      </c>
+      <c r="G155" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155" t="s">
+        <v>432</v>
+      </c>
+      <c r="I155" t="s">
+        <v>433</v>
+      </c>
+      <c r="J155" t="s">
+        <v>377</v>
+      </c>
+      <c r="K155">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>440</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>374</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E156" t="s">
+        <v>375</v>
+      </c>
+      <c r="F156" t="s">
+        <v>376</v>
+      </c>
+      <c r="G156" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" t="s">
+        <v>61</v>
+      </c>
+      <c r="I156" t="s">
+        <v>62</v>
+      </c>
+      <c r="J156" t="s">
+        <v>441</v>
+      </c>
+      <c r="K156">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>416</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>374</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E157" t="s">
+        <v>375</v>
+      </c>
+      <c r="F157" t="s">
+        <v>376</v>
+      </c>
+      <c r="G157" t="s">
+        <v>6</v>
+      </c>
+      <c r="H157" t="s">
+        <v>261</v>
+      </c>
+      <c r="I157" t="s">
+        <v>262</v>
+      </c>
+      <c r="J157" t="s">
+        <v>417</v>
+      </c>
+      <c r="K157">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>418</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>374</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E158" t="s">
+        <v>375</v>
+      </c>
+      <c r="F158" t="s">
+        <v>376</v>
+      </c>
+      <c r="G158" t="s">
+        <v>6</v>
+      </c>
+      <c r="H158" t="s">
+        <v>161</v>
+      </c>
+      <c r="I158" t="s">
+        <v>162</v>
+      </c>
+      <c r="J158" t="s">
+        <v>419</v>
+      </c>
+      <c r="K158">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>411</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>374</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E159" t="s">
+        <v>375</v>
+      </c>
+      <c r="F159" t="s">
+        <v>376</v>
+      </c>
+      <c r="G159" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" t="s">
+        <v>268</v>
+      </c>
+      <c r="I159" t="s">
+        <v>269</v>
+      </c>
+      <c r="J159" t="s">
+        <v>413</v>
+      </c>
+      <c r="K159">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>442</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>374</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E160" t="s">
+        <v>375</v>
+      </c>
+      <c r="F160" t="s">
+        <v>376</v>
+      </c>
+      <c r="G160" t="s">
+        <v>6</v>
+      </c>
+      <c r="H160" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>427</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>374</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E161" t="s">
+        <v>375</v>
+      </c>
+      <c r="F161" t="s">
+        <v>376</v>
+      </c>
+      <c r="G161" t="s">
+        <v>6</v>
+      </c>
+      <c r="H161" t="s">
+        <v>318</v>
+      </c>
+      <c r="I161" t="s">
+        <v>428</v>
+      </c>
+      <c r="J161" t="s">
+        <v>320</v>
+      </c>
+      <c r="K161">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>420</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>374</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E162" t="s">
+        <v>375</v>
+      </c>
+      <c r="F162" t="s">
+        <v>376</v>
+      </c>
+      <c r="G162" t="s">
+        <v>6</v>
+      </c>
+      <c r="H162" t="s">
+        <v>51</v>
+      </c>
+      <c r="I162" t="s">
+        <v>52</v>
+      </c>
+      <c r="J162" t="s">
+        <v>421</v>
+      </c>
+      <c r="K162">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>414</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>374</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E163" t="s">
+        <v>375</v>
+      </c>
+      <c r="F163" t="s">
+        <v>376</v>
+      </c>
+      <c r="G163" t="s">
+        <v>6</v>
+      </c>
+      <c r="H163" t="s">
+        <v>41</v>
+      </c>
+      <c r="I163" t="s">
+        <v>42</v>
+      </c>
+      <c r="J163" t="s">
+        <v>415</v>
+      </c>
+      <c r="K163">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>374</v>
+      </c>
+      <c r="D164" s="1">
+        <v>45114</v>
+      </c>
+      <c r="E164" t="s">
+        <v>375</v>
+      </c>
+      <c r="F164" t="s">
+        <v>376</v>
+      </c>
+      <c r="G164" t="s">
+        <v>29</v>
+      </c>
+      <c r="H164" t="s">
+        <v>377</v>
+      </c>
+      <c r="I164" t="s">
+        <v>377</v>
+      </c>
+      <c r="J164" t="s">
+        <v>377</v>
+      </c>
+      <c r="K164">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>429</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>374</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E165" t="s">
+        <v>375</v>
+      </c>
+      <c r="F165" t="s">
+        <v>376</v>
+      </c>
+      <c r="G165" t="s">
+        <v>6</v>
+      </c>
+      <c r="H165" t="s">
+        <v>97</v>
+      </c>
+      <c r="I165" t="s">
+        <v>98</v>
+      </c>
+      <c r="J165" t="s">
+        <v>430</v>
+      </c>
+      <c r="K165">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>393</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>374</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E166" t="s">
+        <v>375</v>
+      </c>
+      <c r="F166" t="s">
+        <v>376</v>
+      </c>
+      <c r="G166" t="s">
+        <v>6</v>
+      </c>
+      <c r="H166" t="s">
+        <v>389</v>
+      </c>
+      <c r="I166" t="s">
+        <v>390</v>
+      </c>
+      <c r="J166" t="s">
+        <v>395</v>
+      </c>
+      <c r="K166">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>422</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>374</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E167" t="s">
+        <v>375</v>
+      </c>
+      <c r="F167" t="s">
+        <v>376</v>
+      </c>
+      <c r="G167" t="s">
+        <v>6</v>
+      </c>
+      <c r="H167" t="s">
+        <v>424</v>
+      </c>
+      <c r="I167" t="s">
+        <v>425</v>
+      </c>
+      <c r="J167" t="s">
+        <v>426</v>
+      </c>
+      <c r="K167">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>443</v>
+      </c>
+      <c r="C168" t="s">
+        <v>444</v>
+      </c>
+      <c r="D168" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E168" t="s">
+        <v>375</v>
+      </c>
+      <c r="F168" t="s">
+        <v>5</v>
+      </c>
+      <c r="G168" t="s">
+        <v>6</v>
+      </c>
+      <c r="H168" t="s">
+        <v>7</v>
+      </c>
+      <c r="I168" t="s">
+        <v>8</v>
+      </c>
+      <c r="J168" t="s">
+        <v>194</v>
+      </c>
+      <c r="K168">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>443</v>
+      </c>
+      <c r="C169" t="s">
+        <v>444</v>
+      </c>
+      <c r="D169" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E169" t="s">
+        <v>375</v>
+      </c>
+      <c r="F169" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" t="s">
+        <v>29</v>
+      </c>
+      <c r="H169" t="s">
+        <v>377</v>
+      </c>
+      <c r="I169" t="s">
+        <v>377</v>
+      </c>
+      <c r="J169" t="s">
+        <v>377</v>
+      </c>
+      <c r="K169">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>443</v>
+      </c>
+      <c r="C170" t="s">
+        <v>447</v>
+      </c>
+      <c r="D170" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E170" t="s">
+        <v>375</v>
+      </c>
+      <c r="F170" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" t="s">
+        <v>29</v>
+      </c>
+      <c r="H170" t="s">
+        <v>377</v>
+      </c>
+      <c r="I170" t="s">
+        <v>377</v>
+      </c>
+      <c r="J170" t="s">
+        <v>377</v>
+      </c>
+      <c r="K170">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>443</v>
+      </c>
+      <c r="C171" t="s">
+        <v>447</v>
+      </c>
+      <c r="D171" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E171" t="s">
+        <v>375</v>
+      </c>
+      <c r="F171" t="s">
+        <v>5</v>
+      </c>
+      <c r="G171" t="s">
+        <v>29</v>
+      </c>
+      <c r="H171" t="s">
+        <v>377</v>
+      </c>
+      <c r="I171" t="s">
+        <v>377</v>
+      </c>
+      <c r="J171" t="s">
+        <v>377</v>
+      </c>
+      <c r="K171">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>443</v>
+      </c>
+      <c r="C172" t="s">
+        <v>447</v>
+      </c>
+      <c r="D172" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E172" t="s">
+        <v>375</v>
+      </c>
+      <c r="F172" t="s">
+        <v>5</v>
+      </c>
+      <c r="G172" t="s">
+        <v>29</v>
+      </c>
+      <c r="H172" t="s">
+        <v>377</v>
+      </c>
+      <c r="I172" t="s">
+        <v>377</v>
+      </c>
+      <c r="J172" t="s">
+        <v>377</v>
+      </c>
+      <c r="K172">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>443</v>
+      </c>
+      <c r="C173" t="s">
+        <v>447</v>
+      </c>
+      <c r="D173" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E173" t="s">
+        <v>375</v>
+      </c>
+      <c r="F173" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" t="s">
+        <v>377</v>
+      </c>
+      <c r="I173" t="s">
+        <v>377</v>
+      </c>
+      <c r="J173" t="s">
+        <v>377</v>
+      </c>
+      <c r="K173">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>443</v>
+      </c>
+      <c r="C174" t="s">
+        <v>447</v>
+      </c>
+      <c r="D174" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E174" t="s">
+        <v>375</v>
+      </c>
+      <c r="F174" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" t="s">
+        <v>377</v>
+      </c>
+      <c r="I174" t="s">
+        <v>377</v>
+      </c>
+      <c r="J174" t="s">
+        <v>377</v>
+      </c>
+      <c r="K174">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>443</v>
+      </c>
+      <c r="C175" t="s">
+        <v>447</v>
+      </c>
+      <c r="D175" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E175" t="s">
+        <v>375</v>
+      </c>
+      <c r="F175" t="s">
+        <v>5</v>
+      </c>
+      <c r="G175" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" t="s">
+        <v>377</v>
+      </c>
+      <c r="I175" t="s">
+        <v>377</v>
+      </c>
+      <c r="J175" t="s">
+        <v>377</v>
+      </c>
+      <c r="K175">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>443</v>
+      </c>
+      <c r="C176" t="s">
+        <v>447</v>
+      </c>
+      <c r="D176" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E176" t="s">
+        <v>375</v>
+      </c>
+      <c r="F176" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" t="s">
+        <v>377</v>
+      </c>
+      <c r="I176" t="s">
+        <v>377</v>
+      </c>
+      <c r="J176" t="s">
+        <v>377</v>
+      </c>
+      <c r="K176">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>443</v>
+      </c>
+      <c r="C177" t="s">
+        <v>447</v>
+      </c>
+      <c r="D177" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E177" t="s">
+        <v>375</v>
+      </c>
+      <c r="F177" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" t="s">
+        <v>29</v>
+      </c>
+      <c r="H177" t="s">
+        <v>377</v>
+      </c>
+      <c r="I177" t="s">
+        <v>377</v>
+      </c>
+      <c r="J177" t="s">
+        <v>377</v>
+      </c>
+      <c r="K177">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>443</v>
+      </c>
+      <c r="C178" t="s">
+        <v>445</v>
+      </c>
+      <c r="D178" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E178" t="s">
+        <v>375</v>
+      </c>
+      <c r="F178" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" t="s">
+        <v>377</v>
+      </c>
+      <c r="I178" t="s">
+        <v>377</v>
+      </c>
+      <c r="J178" t="s">
+        <v>377</v>
+      </c>
+      <c r="K178">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>443</v>
+      </c>
+      <c r="C179" t="s">
+        <v>445</v>
+      </c>
+      <c r="D179" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E179" t="s">
+        <v>375</v>
+      </c>
+      <c r="F179" t="s">
+        <v>5</v>
+      </c>
+      <c r="G179" t="s">
+        <v>29</v>
+      </c>
+      <c r="H179" t="s">
+        <v>377</v>
+      </c>
+      <c r="I179" t="s">
+        <v>377</v>
+      </c>
+      <c r="J179" t="s">
+        <v>377</v>
+      </c>
+      <c r="K179">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>443</v>
+      </c>
+      <c r="C180" t="s">
+        <v>446</v>
+      </c>
+      <c r="D180" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E180" t="s">
+        <v>375</v>
+      </c>
+      <c r="F180" t="s">
+        <v>5</v>
+      </c>
+      <c r="G180" t="s">
+        <v>29</v>
+      </c>
+      <c r="H180" t="s">
+        <v>377</v>
+      </c>
+      <c r="I180" t="s">
+        <v>377</v>
+      </c>
+      <c r="J180" t="s">
+        <v>377</v>
+      </c>
+      <c r="K180">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>443</v>
+      </c>
+      <c r="C181" t="s">
+        <v>446</v>
+      </c>
+      <c r="D181" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E181" t="s">
+        <v>375</v>
+      </c>
+      <c r="F181" t="s">
+        <v>5</v>
+      </c>
+      <c r="G181" t="s">
+        <v>29</v>
+      </c>
+      <c r="H181" t="s">
+        <v>377</v>
+      </c>
+      <c r="I181" t="s">
+        <v>377</v>
+      </c>
+      <c r="J181" t="s">
+        <v>377</v>
+      </c>
+      <c r="K181">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>443</v>
+      </c>
+      <c r="C182" t="s">
+        <v>446</v>
+      </c>
+      <c r="D182" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E182" t="s">
+        <v>375</v>
+      </c>
+      <c r="F182" t="s">
+        <v>5</v>
+      </c>
+      <c r="G182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" t="s">
+        <v>377</v>
+      </c>
+      <c r="I182" t="s">
+        <v>377</v>
+      </c>
+      <c r="J182" t="s">
+        <v>377</v>
+      </c>
+      <c r="K182">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>443</v>
+      </c>
+      <c r="C183" t="s">
+        <v>446</v>
+      </c>
+      <c r="D183" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E183" t="s">
+        <v>375</v>
+      </c>
+      <c r="F183" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" t="s">
+        <v>29</v>
+      </c>
+      <c r="H183" t="s">
+        <v>377</v>
+      </c>
+      <c r="I183" t="s">
+        <v>377</v>
+      </c>
+      <c r="J183" t="s">
+        <v>377</v>
+      </c>
+      <c r="K183">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>443</v>
+      </c>
+      <c r="C184" t="s">
+        <v>446</v>
+      </c>
+      <c r="D184" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E184" t="s">
+        <v>375</v>
+      </c>
+      <c r="F184" t="s">
+        <v>5</v>
+      </c>
+      <c r="G184" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" t="s">
+        <v>377</v>
+      </c>
+      <c r="I184" t="s">
+        <v>377</v>
+      </c>
+      <c r="J184" t="s">
+        <v>377</v>
+      </c>
+      <c r="K184">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>443</v>
+      </c>
+      <c r="C185" t="s">
+        <v>446</v>
+      </c>
+      <c r="D185" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E185" t="s">
+        <v>375</v>
+      </c>
+      <c r="F185" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" t="s">
+        <v>29</v>
+      </c>
+      <c r="H185" t="s">
+        <v>377</v>
+      </c>
+      <c r="I185" t="s">
+        <v>377</v>
+      </c>
+      <c r="J185" t="s">
+        <v>377</v>
+      </c>
+      <c r="K185">
+        <v>142134</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>443</v>
+      </c>
+      <c r="C186" t="s">
+        <v>446</v>
+      </c>
+      <c r="D186" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E186" t="s">
+        <v>375</v>
+      </c>
+      <c r="F186" t="s">
+        <v>5</v>
+      </c>
+      <c r="G186" t="s">
+        <v>29</v>
+      </c>
+      <c r="H186" t="s">
+        <v>377</v>
+      </c>
+      <c r="I186" t="s">
+        <v>377</v>
+      </c>
+      <c r="J186" t="s">
+        <v>377</v>
+      </c>
+      <c r="K186">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>443</v>
+      </c>
+      <c r="C187" t="s">
+        <v>446</v>
+      </c>
+      <c r="D187" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E187" t="s">
+        <v>375</v>
+      </c>
+      <c r="F187" t="s">
+        <v>5</v>
+      </c>
+      <c r="G187" t="s">
+        <v>29</v>
+      </c>
+      <c r="H187" t="s">
+        <v>377</v>
+      </c>
+      <c r="I187" t="s">
+        <v>377</v>
+      </c>
+      <c r="J187" t="s">
+        <v>377</v>
+      </c>
+      <c r="K187">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" r:id="rId1" orientation="portrait" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>